--- a/data/georgia_census/samegrelo/mestia/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/mestia/healthcare_staff.xlsx
@@ -1348,13 +1348,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8961C83C-FA97-4C09-88FA-E53F0AF72685}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE959E1-932A-4F0B-AC80-E71ED300AF07}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8E9D5C4-B8AA-4311-8CED-CF3A3275E60D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B11BD11C-362E-4084-9CE0-B765EF5BD691}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7964B1-9120-4439-B2F8-B0807BA3245F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB61D7B-060D-4D79-9FA8-983D2AFEF7BF}"/>
 </file>